--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_40.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_40.xlsx
@@ -508,295 +508,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_7</t>
+          <t>model_1_40_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995980677563338</v>
+        <v>0.9506508330208839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8240055689380651</v>
+        <v>0.7507990584631525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8133638287208853</v>
+        <v>0.7570363479789616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994384588559923</v>
+        <v>0.9827121142941082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001673053694578662</v>
+        <v>0.1729940270515609</v>
       </c>
       <c r="G2" t="n">
-        <v>1.176875570890999</v>
+        <v>1.666407843521725</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6675867628784016</v>
+        <v>0.8690668954372733</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001895758076760435</v>
+        <v>0.06853696760797766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1102950528700943</v>
+        <v>1.307109759571653</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04090297904283578</v>
+        <v>0.4159255066133368</v>
       </c>
       <c r="L2" t="n">
-        <v>1.02572366359464</v>
+        <v>0.9328011343263101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04154716007478216</v>
+        <v>0.4224759175695268</v>
       </c>
       <c r="N2" t="n">
-        <v>142.7862095254109</v>
+        <v>37.50899642158781</v>
       </c>
       <c r="O2" t="n">
-        <v>284.1213820686273</v>
+        <v>74.47358000981363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_5</t>
+          <t>model_1_40_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995483967577551</v>
+        <v>0.9506503574481975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8238298029071855</v>
+        <v>0.7507290139646087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8140561382728155</v>
+        <v>0.7570820354698907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995499358151601</v>
+        <v>0.9828344038797608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001879810552220534</v>
+        <v>0.1729956941766455</v>
       </c>
       <c r="G3" t="n">
-        <v>1.178050919148818</v>
+        <v>1.666876231406013</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6651104117535612</v>
+        <v>0.8689034739313329</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001519412820548706</v>
+        <v>0.06805215659561568</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1018497596289315</v>
+        <v>1.308148481554947</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04335678207870752</v>
+        <v>0.4159275107234979</v>
       </c>
       <c r="L3" t="n">
-        <v>1.028902607503674</v>
+        <v>0.932800486737971</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04403960805556575</v>
+        <v>0.4224779532424196</v>
       </c>
       <c r="N3" t="n">
-        <v>142.5531685546268</v>
+        <v>37.50897714789287</v>
       </c>
       <c r="O3" t="n">
-        <v>283.8883410978432</v>
+        <v>74.4735607361187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_8</t>
+          <t>model_1_40_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996029407594468</v>
+        <v>0.9506424626966121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8237913543516834</v>
+        <v>0.750362272249969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8138875037178928</v>
+        <v>0.7573093881403157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993995094286969</v>
+        <v>0.983453464647527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001652769689027082</v>
+        <v>0.1730233693118691</v>
       </c>
       <c r="G4" t="n">
-        <v>1.178308024816501</v>
+        <v>1.669328634940499</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6657136077785266</v>
+        <v>0.8680902466118878</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002027251008611206</v>
+        <v>0.06559792080822249</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1095252034306685</v>
+        <v>1.313547389649111</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0406542702434453</v>
+        <v>0.415960778573977</v>
       </c>
       <c r="L4" t="n">
-        <v>1.025411791395406</v>
+        <v>0.9327897364379399</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04129453436041887</v>
+        <v>0.422511745028288</v>
       </c>
       <c r="N4" t="n">
-        <v>142.8106055978653</v>
+        <v>37.50865722175928</v>
       </c>
       <c r="O4" t="n">
-        <v>284.1457781410817</v>
+        <v>74.4732408099851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_9</t>
+          <t>model_1_40_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996273021057008</v>
+        <v>0.9506397238912665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8237908679695614</v>
+        <v>0.7502852553458361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8142393662702041</v>
+        <v>0.75735590246864</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993763668384869</v>
+        <v>0.9835783728789455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001551364934873406</v>
+        <v>0.17303297022299</v>
       </c>
       <c r="G5" t="n">
-        <v>1.17831127725599</v>
+        <v>1.669843647333065</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6644550158310722</v>
+        <v>0.8679238675565274</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002105380194292457</v>
+        <v>0.06510272830427297</v>
       </c>
       <c r="J5" t="n">
-        <v>0.10662837303084</v>
+        <v>1.314660916323143</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03938737024571971</v>
+        <v>0.4159723190586004</v>
       </c>
       <c r="L5" t="n">
-        <v>1.023852665235147</v>
+        <v>0.9327860070008736</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04000768195416447</v>
+        <v>0.422523467264008</v>
       </c>
       <c r="N5" t="n">
-        <v>142.9372402648206</v>
+        <v>37.50854624663729</v>
       </c>
       <c r="O5" t="n">
-        <v>284.2724128080371</v>
+        <v>74.47312983486312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_4</t>
+          <t>model_1_40_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995595371061197</v>
+        <v>0.9506366657284704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8237632071442659</v>
+        <v>0.7502071917501996</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8146707937314041</v>
+        <v>0.7574024678144811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996657568871841</v>
+        <v>0.9837042927867286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001833438554741224</v>
+        <v>0.1730436906450327</v>
       </c>
       <c r="G6" t="n">
-        <v>1.178496245322108</v>
+        <v>1.670365658956537</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6629118248179613</v>
+        <v>0.8677573060144681</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001128401876663989</v>
+        <v>0.06460352505942599</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09412415127160413</v>
+        <v>1.315786617819491</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04281867063257831</v>
+        <v>0.4159852048391056</v>
       </c>
       <c r="L6" t="n">
-        <v>1.028189625208341</v>
+        <v>0.9327818426940874</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04349302189207411</v>
+        <v>0.4225365559826751</v>
       </c>
       <c r="N6" t="n">
-        <v>142.6031241671271</v>
+        <v>37.50842233857578</v>
       </c>
       <c r="O6" t="n">
-        <v>283.9382967103435</v>
+        <v>74.4730059268016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_6</t>
+          <t>model_1_40_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995786046371544</v>
+        <v>0.95060020828634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8235043778894358</v>
+        <v>0.7496390717325891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8137524201642949</v>
+        <v>0.7577236347410775</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994794192149379</v>
+        <v>0.9845918492713618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001754069447766291</v>
+        <v>0.1731714925942089</v>
       </c>
       <c r="G7" t="n">
-        <v>1.180227037740956</v>
+        <v>1.674164680130251</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6661967938171518</v>
+        <v>0.8666085105403609</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001757476256938768</v>
+        <v>0.06108485128563822</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09673183116608562</v>
+        <v>1.324196135674353</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04188161228709195</v>
+        <v>0.4161387900619322</v>
       </c>
       <c r="L7" t="n">
-        <v>1.026969303222117</v>
+        <v>0.9327321985175693</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04254120581436102</v>
+        <v>0.4226925600192324</v>
       </c>
       <c r="N7" t="n">
-        <v>142.691633583757</v>
+        <v>37.50694577762562</v>
       </c>
       <c r="O7" t="n">
-        <v>284.0268061269734</v>
+        <v>74.47152936585144</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994336116082722</v>
+        <v>0.9505769608609297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8234286533906968</v>
+        <v>0.7493731443845866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8146580624287625</v>
+        <v>0.7578657567693675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997521850953037</v>
+        <v>0.9849741249059265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002357606801343334</v>
+        <v>0.1732529866899856</v>
       </c>
       <c r="G8" t="n">
-        <v>1.180733407812703</v>
+        <v>1.675942937530827</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6629573639493072</v>
+        <v>0.8661001482858763</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008366209887430352</v>
+        <v>0.05956933844449598</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08668437045240983</v>
+        <v>1.327941606329574</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04855519335090052</v>
+        <v>0.4162366955110825</v>
       </c>
       <c r="L8" t="n">
-        <v>1.036248857070582</v>
+        <v>0.9327005424489255</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04931988910879099</v>
+        <v>0.4227920073813372</v>
       </c>
       <c r="N8" t="n">
-        <v>142.1002164833721</v>
+        <v>37.50600480373776</v>
       </c>
       <c r="O8" t="n">
-        <v>283.4353890265885</v>
+        <v>74.47058839196359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_0</t>
+          <t>model_1_40_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993777213220835</v>
+        <v>0.950473395322983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8222392835492256</v>
+        <v>0.7484884218986818</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8161691211363884</v>
+        <v>0.7583152445374481</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999671135073049</v>
+        <v>0.9861235192323344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002590251609697402</v>
+        <v>0.1736160367791742</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188686729419165</v>
+        <v>1.681859080867844</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6575523945683472</v>
+        <v>0.8644923566022502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001110245167400088</v>
+        <v>0.05501262150073637</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06215602558726178</v>
+        <v>1.340193356377768</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05089451453445058</v>
+        <v>0.4166725774264179</v>
       </c>
       <c r="L9" t="n">
-        <v>1.039825835386658</v>
+        <v>0.9325595170355514</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0516960522625187</v>
+        <v>0.4232347540011171</v>
       </c>
       <c r="N9" t="n">
-        <v>141.9120005227756</v>
+        <v>37.50181820652446</v>
       </c>
       <c r="O9" t="n">
-        <v>283.247173065992</v>
+        <v>74.46640179475028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_2</t>
+          <t>model_1_40_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994050514248531</v>
+        <v>0.9504427603247221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8221898711253361</v>
+        <v>0.7482921795145367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8166471368441017</v>
+        <v>0.7584041874212638</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999416344283718</v>
+        <v>0.9863699110447175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0024764893272913</v>
+        <v>0.1737234280897534</v>
       </c>
       <c r="G10" t="n">
-        <v>1.189017150525237</v>
+        <v>1.683171354594234</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6558425600987997</v>
+        <v>0.8641742130640463</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001970416682722956</v>
+        <v>0.05403581335013586</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06588975127304772</v>
+        <v>1.343558772242304</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04976433790669077</v>
+        <v>0.4168014252491867</v>
       </c>
       <c r="L10" t="n">
-        <v>1.038076708809399</v>
+        <v>0.9325178012932386</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05054807648263383</v>
+        <v>0.4233656310482939</v>
       </c>
       <c r="N10" t="n">
-        <v>142.0018266310778</v>
+        <v>37.50058147618008</v>
       </c>
       <c r="O10" t="n">
-        <v>283.3369991742942</v>
+        <v>74.46516506440589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_1</t>
+          <t>model_1_40_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993822782336914</v>
+        <v>0.9504259261133345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.822149516250264</v>
+        <v>0.7481828891859981</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8165917925908268</v>
+        <v>0.7584569859761396</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999429622676559</v>
+        <v>0.9864958528301514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00257128334347432</v>
+        <v>0.17378244059591</v>
       </c>
       <c r="G11" t="n">
-        <v>1.189287003760662</v>
+        <v>1.683902179524409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6560405232837199</v>
+        <v>0.8639853556946916</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001925588942597559</v>
+        <v>0.0535365233724244</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06678460351674563</v>
+        <v>1.345272429275754</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05070782329655178</v>
+        <v>0.4168722113500851</v>
       </c>
       <c r="L11" t="n">
-        <v>1.03953419304375</v>
+        <v>0.9324948781117747</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05150642082424577</v>
+        <v>0.4234375319595213</v>
       </c>
       <c r="N11" t="n">
-        <v>141.9267002985479</v>
+        <v>37.49990220699885</v>
       </c>
       <c r="O11" t="n">
-        <v>283.2618728417643</v>
+        <v>74.46448579522466</v>
       </c>
     </row>
   </sheetData>
